--- a/biology/Médecine/David_B._Samadi/David_B._Samadi.xlsx
+++ b/biology/Médecine/David_B._Samadi/David_B._Samadi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">David B. Samadi est le premier chirurgien aux États-Unis à avoir effectué une intervention de chirurgie robotique assistée sur la prostate. Il a effectué plus de 5,200 chirurgies laparoscopiques utilisant le da Vinci sur des patients atteints de cancers de la prostate, de la vessie et du rein[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David B. Samadi est le premier chirurgien aux États-Unis à avoir effectué une intervention de chirurgie robotique assistée sur la prostate. Il a effectué plus de 5,200 chirurgies laparoscopiques utilisant le da Vinci sur des patients atteints de cancers de la prostate, de la vessie et du rein.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1979, à l'âge de 16 ans, Samadi et son jeune frère quittent l'Iran à la suite du renversement du gouvernement du Shah.  Grâce à la bonté d'amis et de personnes de la communauté Juive Iranienne de Belgique et de Londres, Samadi se rend à New York. Avec une complète bourse d'études, il obtient son diplôme en science biochimique.  Après plusieurs séjours professionnels et bourses d'études aux États-Unis et en France, Samadi devient l'un des quelques chirurgiens  aux États-Unis à être qualifiés dans les trois types primaires de chirurgie urologique - ouverte, laparoscopique et robotique. Après avoir tenu la position de chef de la Division Robotique et de la Chirurgie Mini Invasive à l'École de Médecine au Mount Sinaï à New York City entre 2007 et 2013, il est désormais Président de l'Urologie, Chef de la Chirurgie Robotique à l'Hôpital Lenox Hill Professeur d'Urologie à l'École de Médecine Hofstra North Shore-LIJ à New York City.
 </t>
@@ -542,7 +556,9 @@
           <t>Signification de l'oncologie robotique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Autres les avantages tels que des cicatrices post-opératoire minimales, souvent une sortie de l'hôpital dès le même jour ou le jour suivant, des taux de récupération plus rapides, la prostatectomie robotique offre à certains patients les avantages supplémentaires : 
 Les patients soumis à la prostatectomie robotique ont plus de chance de garder le contrôle des fonctions sexuelles, intestinales et vésicales.
@@ -575,7 +591,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>"Organ-confined prostate cancer and the emergence of robotic prostatectomy : What primary care physicians and geriatricians need to know". David B. Samadi, MD, John R. Carlucci, MD, Fatima Nabizada-Pace, MPH. Geriatrics Digital Edition, February 2008.
 A percutaneous subcostal approach for intercostal stones. Chughtai B, Rehman J, Schulsinger D, Adler H, Khan SA, Samadi D., Journal of endourology, 2008 PMID 18298314
